--- a/ML sheet.xlsx
+++ b/ML sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Year of Exp(X)</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Square (X-X_BAR)</t>
   </si>
   <si>
+    <t>Predict Salary( Y_predict)</t>
+  </si>
+  <si>
+    <t>SSE Square( Y-Y_predict ) ^2</t>
+  </si>
+  <si>
     <t>feature = 20 ( years of experience)</t>
   </si>
   <si>
@@ -56,6 +62,27 @@
   </si>
   <si>
     <t>&lt;final salary of 20 years experienced)</t>
+  </si>
+  <si>
+    <t>ERROR RATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSE </t>
+  </si>
+  <si>
+    <t>Sum of square Error</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Sum of square Total</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Square due to regression </t>
   </si>
 </sst>
 </file>
@@ -81,34 +108,71 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -134,6 +198,34 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4876800" cy="2381250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -354,8 +446,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="29.5"/>
     <col customWidth="1" min="5" max="5" width="25.13"/>
     <col customWidth="1" min="6" max="6" width="31.0"/>
+    <col customWidth="1" min="7" max="7" width="22.25"/>
+    <col customWidth="1" min="8" max="8" width="29.88"/>
     <col customWidth="1" min="9" max="9" width="51.88"/>
   </cols>
   <sheetData>
@@ -378,6 +473,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
@@ -402,6 +503,14 @@
         <f t="shared" ref="F2:F10" si="4">C2*C2</f>
         <v>12.64197531</v>
       </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G10" si="5">$H$13 + $H$12 * A2</f>
+        <v>30305.13176</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H10" si="6">(B2 -G2) * (B2 -G2)</f>
+        <v>106195740.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -426,6 +535,14 @@
         <f t="shared" si="4"/>
         <v>6.530864198</v>
       </c>
+      <c r="G3" s="4">
+        <f t="shared" si="5"/>
+        <v>34594.31345</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="6"/>
+        <v>21107716.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
@@ -450,6 +567,14 @@
         <f t="shared" si="4"/>
         <v>20.75308642</v>
       </c>
+      <c r="G4" s="4">
+        <f t="shared" si="5"/>
+        <v>26015.95007</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="6"/>
+        <v>256510656.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -474,6 +599,14 @@
         <f t="shared" si="4"/>
         <v>0.3086419753</v>
       </c>
+      <c r="G5" s="4">
+        <f t="shared" si="5"/>
+        <v>43172.67684</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="6"/>
+        <v>3339109.939</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -498,6 +631,14 @@
         <f t="shared" si="4"/>
         <v>2.086419753</v>
       </c>
+      <c r="G6" s="4">
+        <f t="shared" si="5"/>
+        <v>51751.04022</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="6"/>
+        <v>68045337.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
@@ -522,6 +663,14 @@
         <f t="shared" si="4"/>
         <v>2.419753086</v>
       </c>
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>38883.49515</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="6"/>
+        <v>37411631.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
@@ -546,6 +695,14 @@
         <f t="shared" si="4"/>
         <v>19.75308642</v>
       </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>64618.5853</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="6"/>
+        <v>236587918.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
@@ -570,8 +727,16 @@
         <f t="shared" si="4"/>
         <v>89.19753086</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>6</v>
+      <c r="G9" s="4">
+        <f t="shared" si="5"/>
+        <v>86064.49376</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="6"/>
+        <v>258067959.7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -597,74 +762,121 @@
         <f t="shared" si="4"/>
         <v>6.530864198</v>
       </c>
-      <c r="I10" s="3">
+      <c r="G10" s="4">
+        <f t="shared" si="5"/>
+        <v>34594.31345</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="6"/>
+        <v>237335178</v>
+      </c>
+      <c r="I10" s="5">
         <v>20.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
-        <f t="shared" ref="A11:B11" si="5">AVERAGE(A2:A10)</f>
+      <c r="A11" s="6">
+        <f t="shared" ref="A11:B11" si="7">AVERAGE(A2:A10)</f>
         <v>5.555555556</v>
       </c>
-      <c r="B11" s="4">
-        <f t="shared" si="5"/>
+      <c r="B11" s="6">
+        <f t="shared" si="7"/>
         <v>45555.55556</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" ref="E11:F11" si="6">SUM(E2:E10)</f>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:F11" si="8">SUM(E2:E10)</f>
         <v>687222.2222</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="6"/>
+      <c r="F11" s="6">
+        <f t="shared" si="8"/>
         <v>160.2222222</v>
       </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <f>SUM(H2:H10)</f>
+        <v>1224601248</v>
+      </c>
+      <c r="I11" s="8">
+        <f>SQRT(H11)</f>
+        <v>34994.30308</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4">
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8">
         <f>E11/F11</f>
         <v>4289.181692</v>
       </c>
     </row>
     <row r="13">
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="8">
         <f>B11- H12 * A11</f>
         <v>21726.76838</v>
       </c>
     </row>
     <row r="14">
-      <c r="I14" s="3" t="s">
-        <v>13</v>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="I15" s="4">
+      <c r="I15" s="8">
         <f>H13 +H12 * I10</f>
         <v>107510.4022</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>14</v>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
